--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,10 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Project team</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://hl7.org/fhir)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -329,52 +326,50 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -396,42 +391,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.7</t>
+    <t>0.7.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,10 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>HL7 Norway</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/fhir)</t>
+    <t>HL7 Norway (http://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -326,50 +329,52 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -391,42 +396,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This resource includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these specifications must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/get-snomed-ct or info@snomed.org</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -367,14 +370,16 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -396,7 +401,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -404,34 +409,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-03-17T00:00:00+00:00</t>
+    <t>2025-02-20T13:41:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-20T13:41:55+00:00</t>
+    <t>2025-02-26T13:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T13:21:21+00:00</t>
+    <t>2025-03-21T10:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T10:35:33+00:00</t>
+    <t>2025-03-21T10:58:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T10:58:46+00:00</t>
+    <t>2025-03-21T11:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T11:15:59+00:00</t>
+    <t>2025-03-21T11:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-21T11:26:13+00:00</t>
+    <t>2025-03-24T06:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T06:22:27+00:00</t>
+    <t>2025-03-24T09:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T09:01:33+00:00</t>
+    <t>2025-03-24T11:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T11:46:28+00:00</t>
+    <t>2025-03-25T12:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:40:24+00:00</t>
+    <t>2025-03-25T12:51:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:51:17+00:00</t>
+    <t>2025-03-26T06:16:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T06:16:28+00:00</t>
+    <t>2025-03-26T06:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T06:25:27+00:00</t>
+    <t>2025-03-26T07:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsObservationPulseRhythmIrregularity.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T07:23:44+00:00</t>
+    <t>2025-05-13T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
